--- a/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R04A 清场记录.xlsx
+++ b/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R04A 清场记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>颇尔奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -70,107 +70,6 @@
         <charset val="134"/>
       </rPr>
       <t>清场结果</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备是否按程序关机，并切断电源</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>剩余卷心管是否包好退库</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分切的成品是否已包装定置摆放，粘贴标签，登记台帐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产废料是否已称重入库</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产记录是否已整理归档</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备和地面是否已清洁</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>剩余半成品膜卷是否已称重退库</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工器具否已清洁并定点放置</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -531,7 +430,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -792,7 +691,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1081,7 +980,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1104,7 +1003,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1119,11 +1018,11 @@
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -1143,79 +1042,47 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9">
-        <v>6</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="9">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="9">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="62.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1225,12 +1092,12 @@
     </row>
     <row r="10" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>

--- a/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R04A 清场记录.xlsx
+++ b/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R04A 清场记录.xlsx
@@ -423,7 +423,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>生产指令编号：</t>
+    <t>生产指令：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -980,7 +980,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
